--- a/resources/ExcelsheetData/ManufacturerBrandModuleTest.xlsx
+++ b/resources/ExcelsheetData/ManufacturerBrandModuleTest.xlsx
@@ -4,36 +4,45 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="28"/>
   </bookViews>
   <sheets>
-    <sheet name="createManufacturers" sheetId="1" r:id="rId1"/>
+    <sheet name="TC_MB_001" sheetId="21" r:id="rId1"/>
     <sheet name="createBrands" sheetId="2" r:id="rId2"/>
     <sheet name="TC_MB_002" sheetId="3" r:id="rId3"/>
     <sheet name="TC_MB_002_1" sheetId="5" r:id="rId4"/>
     <sheet name="TC_MB_004" sheetId="4" r:id="rId5"/>
-    <sheet name="TC_MB_023" sheetId="6" r:id="rId6"/>
-    <sheet name="TC_MB_026_1" sheetId="7" r:id="rId7"/>
-    <sheet name="TC_MB_030" sheetId="8" r:id="rId8"/>
-    <sheet name="TC_MB_032" sheetId="9" r:id="rId9"/>
-    <sheet name="TC_MB_033" sheetId="10" r:id="rId10"/>
-    <sheet name="TC_MB_035" sheetId="11" r:id="rId11"/>
-    <sheet name="TC_MB_036" sheetId="12" r:id="rId12"/>
-    <sheet name="TC_MB_039" sheetId="13" r:id="rId13"/>
-    <sheet name="TC_MB_039_1" sheetId="14" r:id="rId14"/>
-    <sheet name="TC_MB_041" sheetId="17" r:id="rId15"/>
-    <sheet name="TC_MB_042" sheetId="18" r:id="rId16"/>
-    <sheet name="TC_MB_043" sheetId="19" r:id="rId17"/>
-    <sheet name="TC_MB_043_1" sheetId="20" r:id="rId18"/>
-    <sheet name="TC_MB_047" sheetId="15" r:id="rId19"/>
-    <sheet name="TC_MB_048" sheetId="16" r:id="rId20"/>
+    <sheet name="TC_MB_006" sheetId="22" r:id="rId6"/>
+    <sheet name="TC_MB_010" sheetId="23" r:id="rId7"/>
+    <sheet name="TC_MB_011" sheetId="24" r:id="rId8"/>
+    <sheet name="TC_MB_012" sheetId="25" r:id="rId9"/>
+    <sheet name="TC_MB_013" sheetId="26" r:id="rId10"/>
+    <sheet name="TC_MB_014" sheetId="27" r:id="rId11"/>
+    <sheet name="TC_MB_019" sheetId="28" r:id="rId12"/>
+    <sheet name="TC_MB_023" sheetId="6" r:id="rId13"/>
+    <sheet name="TC_MB_026_1" sheetId="7" r:id="rId14"/>
+    <sheet name="TC_MB_030" sheetId="8" r:id="rId15"/>
+    <sheet name="TC_MB_032" sheetId="9" r:id="rId16"/>
+    <sheet name="TC_MB_033" sheetId="10" r:id="rId17"/>
+    <sheet name="TC_MB_035" sheetId="11" r:id="rId18"/>
+    <sheet name="TC_MB_036" sheetId="12" r:id="rId19"/>
+    <sheet name="TC_MB_039" sheetId="13" r:id="rId20"/>
+    <sheet name="TC_MB_039_1" sheetId="14" r:id="rId21"/>
+    <sheet name="TC_MB_041" sheetId="17" r:id="rId22"/>
+    <sheet name="TC_MB_042" sheetId="18" r:id="rId23"/>
+    <sheet name="TC_MB_043" sheetId="19" r:id="rId24"/>
+    <sheet name="TC_MB_043_1" sheetId="20" r:id="rId25"/>
+    <sheet name="verifyCharLimitManuName" sheetId="29" r:id="rId26"/>
+    <sheet name="verifyCharLimitManuCode" sheetId="30" r:id="rId27"/>
+    <sheet name="TC_MB_047" sheetId="15" r:id="rId28"/>
+    <sheet name="TC_MB_048" sheetId="16" r:id="rId29"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="81">
   <si>
     <t>Manufacturers Name</t>
   </si>
@@ -68,9 +77,6 @@
     <t>Automation_Manufacturer_005</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Brand Name</t>
   </si>
   <si>
@@ -209,12 +215,6 @@
     <t>Brand Save Message</t>
   </si>
   <si>
-    <t>MaufacturerManu001001</t>
-  </si>
-  <si>
-    <t>BrandBran001001</t>
-  </si>
-  <si>
     <t>Test Brand</t>
   </si>
   <si>
@@ -231,6 +231,60 @@
   </si>
   <si>
     <t>Manufacturer removed Successfully</t>
+  </si>
+  <si>
+    <t>TestCaseId</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>TC_MB_001</t>
+  </si>
+  <si>
+    <t>automationUser</t>
+  </si>
+  <si>
+    <t>unilog123##</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>100100230</t>
+  </si>
+  <si>
+    <t>AutomationTestManufacturer</t>
+  </si>
+  <si>
+    <t>ManufacturerName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>AutomationTestBrand</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Passwod</t>
+  </si>
+  <si>
+    <t>1001100</t>
+  </si>
+  <si>
+    <t>SNO</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>automationUse</t>
   </si>
 </sst>
 </file>
@@ -260,7 +314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +324,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,12 +361,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,19 +673,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,13 +1038,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -648,518 +1055,163 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1001000</v>
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1001001</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1001010</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1001011</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1001100</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1001100</v>
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1194,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1217,19 +1269,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1240,19 +1292,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1263,19 +1315,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1286,19 +1338,19 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1309,19 +1361,19 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1332,19 +1384,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1355,19 +1407,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1378,19 +1430,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1401,19 +1453,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1424,19 +1476,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1447,19 +1499,19 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1470,19 +1522,19 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1493,19 +1545,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1516,19 +1568,19 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1539,19 +1591,19 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1562,19 +1614,19 @@
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1585,19 +1637,19 @@
         <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1608,19 +1660,19 @@
         <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1631,19 +1683,19 @@
         <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1654,19 +1706,19 @@
         <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1677,19 +1729,19 @@
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1700,19 +1752,19 @@
         <v>10</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1723,19 +1775,19 @@
         <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1746,19 +1798,19 @@
         <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1769,19 +1821,19 @@
         <v>10</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1791,7 +1843,433 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1799,24 +2277,128 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1826,10 +2408,149 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="B1" sqref="B1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100100230</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>100100230</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,304 +2558,67 @@
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="2">
-        <v>100100230</v>
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+        <v>71</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2">
-        <v>100100230</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="2">
-        <v>100100230</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2142,10 +2626,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2153,10 +2637,133 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ExcelsheetData/ManufacturerBrandModuleTest.xlsx
+++ b/resources/ExcelsheetData/ManufacturerBrandModuleTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="28"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="TC_MB_001" sheetId="21" r:id="rId1"/>
@@ -12,37 +12,40 @@
     <sheet name="TC_MB_002" sheetId="3" r:id="rId3"/>
     <sheet name="TC_MB_002_1" sheetId="5" r:id="rId4"/>
     <sheet name="TC_MB_004" sheetId="4" r:id="rId5"/>
-    <sheet name="TC_MB_006" sheetId="22" r:id="rId6"/>
-    <sheet name="TC_MB_010" sheetId="23" r:id="rId7"/>
-    <sheet name="TC_MB_011" sheetId="24" r:id="rId8"/>
-    <sheet name="TC_MB_012" sheetId="25" r:id="rId9"/>
-    <sheet name="TC_MB_013" sheetId="26" r:id="rId10"/>
-    <sheet name="TC_MB_014" sheetId="27" r:id="rId11"/>
-    <sheet name="TC_MB_019" sheetId="28" r:id="rId12"/>
-    <sheet name="TC_MB_023" sheetId="6" r:id="rId13"/>
-    <sheet name="TC_MB_026_1" sheetId="7" r:id="rId14"/>
-    <sheet name="TC_MB_030" sheetId="8" r:id="rId15"/>
-    <sheet name="TC_MB_032" sheetId="9" r:id="rId16"/>
-    <sheet name="TC_MB_033" sheetId="10" r:id="rId17"/>
-    <sheet name="TC_MB_035" sheetId="11" r:id="rId18"/>
-    <sheet name="TC_MB_036" sheetId="12" r:id="rId19"/>
-    <sheet name="TC_MB_039" sheetId="13" r:id="rId20"/>
-    <sheet name="TC_MB_039_1" sheetId="14" r:id="rId21"/>
-    <sheet name="TC_MB_041" sheetId="17" r:id="rId22"/>
-    <sheet name="TC_MB_042" sheetId="18" r:id="rId23"/>
-    <sheet name="TC_MB_043" sheetId="19" r:id="rId24"/>
-    <sheet name="TC_MB_043_1" sheetId="20" r:id="rId25"/>
-    <sheet name="verifyCharLimitManuName" sheetId="29" r:id="rId26"/>
-    <sheet name="verifyCharLimitManuCode" sheetId="30" r:id="rId27"/>
-    <sheet name="TC_MB_047" sheetId="15" r:id="rId28"/>
-    <sheet name="TC_MB_048" sheetId="16" r:id="rId29"/>
+    <sheet name="TC_MB_009" sheetId="32" r:id="rId6"/>
+    <sheet name="TC_MB_006" sheetId="22" r:id="rId7"/>
+    <sheet name="TC_MB_010" sheetId="23" r:id="rId8"/>
+    <sheet name="TC_MB_011" sheetId="24" r:id="rId9"/>
+    <sheet name="TC_MB_012" sheetId="25" r:id="rId10"/>
+    <sheet name="TC_MB_013" sheetId="26" r:id="rId11"/>
+    <sheet name="TC_MB_016" sheetId="33" r:id="rId12"/>
+    <sheet name="TC_MB_014" sheetId="27" r:id="rId13"/>
+    <sheet name="TC_MB_019" sheetId="28" r:id="rId14"/>
+    <sheet name="TC_MB_023" sheetId="6" r:id="rId15"/>
+    <sheet name="TC_MB_026_1" sheetId="7" r:id="rId16"/>
+    <sheet name="TC_MB_030" sheetId="8" r:id="rId17"/>
+    <sheet name="TC_MB_032" sheetId="9" r:id="rId18"/>
+    <sheet name="TC_MB_033" sheetId="10" r:id="rId19"/>
+    <sheet name="TC_MB_035" sheetId="11" r:id="rId20"/>
+    <sheet name="TC_MB_036" sheetId="12" r:id="rId21"/>
+    <sheet name="TC_MB_039" sheetId="13" r:id="rId22"/>
+    <sheet name="TC_MB_039_1" sheetId="14" r:id="rId23"/>
+    <sheet name="TC_MB_041" sheetId="17" r:id="rId24"/>
+    <sheet name="TC_MB_042" sheetId="18" r:id="rId25"/>
+    <sheet name="TC_MB_043" sheetId="19" r:id="rId26"/>
+    <sheet name="TC_MB_043_1" sheetId="20" r:id="rId27"/>
+    <sheet name="verifyCharLimitManuName" sheetId="29" r:id="rId28"/>
+    <sheet name="verifyCharLimitManuCode" sheetId="30" r:id="rId29"/>
+    <sheet name="TC_MB_047" sheetId="15" r:id="rId30"/>
+    <sheet name="TC_MB_048" sheetId="16" r:id="rId31"/>
+    <sheet name="createManufacturers" sheetId="31" r:id="rId32"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="96">
   <si>
     <t>Manufacturers Name</t>
   </si>
@@ -285,6 +288,51 @@
   </si>
   <si>
     <t>automationUse</t>
+  </si>
+  <si>
+    <t>testCaseID</t>
+  </si>
+  <si>
+    <t>manufacturersName</t>
+  </si>
+  <si>
+    <t>manufacturersCode</t>
+  </si>
+  <si>
+    <t>manufacturerActiveStatus</t>
+  </si>
+  <si>
+    <t>saveMessage</t>
+  </si>
+  <si>
+    <t>TC_M-Brands_1</t>
+  </si>
+  <si>
+    <t>cimmAdmin</t>
+  </si>
+  <si>
+    <t>adminCimm86$$</t>
+  </si>
+  <si>
+    <t>ATManu</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>Search Keyword</t>
+  </si>
+  <si>
+    <t>Invalidkeyword111</t>
+  </si>
+  <si>
+    <t>fieldnames</t>
+  </si>
+  <si>
+    <t>Manufacturer Logo,Manufacturer Id,Status</t>
   </si>
 </sst>
 </file>
@@ -676,14 +724,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -718,7 +766,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,6 +845,95 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -836,7 +973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -885,7 +1022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -967,7 +1104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1016,7 +1153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1072,7 +1209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1114,104 +1251,6 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1843,6 +1882,104 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1897,7 +2034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1946,7 +2083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1995,7 +2132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2044,12 +2181,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,7 +2286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2226,7 +2363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2267,7 +2404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2308,110 +2445,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2476,12 +2515,181 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2609,6 +2817,95 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2648,7 +2945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2687,86 +2984,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>